--- a/data/respirometry/shallow/final_rates/300_rates.xlsx
+++ b/data/respirometry/shallow/final_rates/300_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z2">
-        <v>-0.2333168084618793</v>
+        <v>-0.219062907004309</v>
       </c>
       <c r="AB2">
-        <v>-0.009332672338475172</v>
+        <v>-894.6444232231951</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.009332672338475172</v>
+        <v>-894.6444232231951</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z3">
-        <v>-0.2391618776260261</v>
+        <v>-0.2311228863950921</v>
       </c>
       <c r="AB3">
-        <v>-0.009566475105041045</v>
+        <v>-1552.229351201616</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.009566475105041045</v>
+        <v>-1552.229351201616</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z4">
-        <v>-0.1805295775020674</v>
+        <v>-0.1717472054618187</v>
       </c>
       <c r="AB4">
-        <v>-0.007221183100082696</v>
+        <v>-772.6587717653832</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.007221183100082696</v>
+        <v>-772.6587717653832</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z5">
-        <v>-0.2643742103295501</v>
+        <v>-0.2428954027474859</v>
       </c>
       <c r="AB5">
-        <v>-0.010574968413182</v>
+        <v>-960.2763022132283</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.010574968413182</v>
+        <v>-960.2763022132283</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z6">
-        <v>-0.2411644551434789</v>
+        <v>-0.2258674431593748</v>
       </c>
       <c r="AB6">
-        <v>-0.009646578205739158</v>
+        <v>-1219.844952806645</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.009646578205739158</v>
+        <v>-1219.844952806645</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z7">
-        <v>-0.2528587673370096</v>
+        <v>-0.2340086886050746</v>
       </c>
       <c r="AB7">
-        <v>-0.01011435069348039</v>
+        <v>-723.9703434908829</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.01011435069348039</v>
+        <v>-723.9703434908829</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,28 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.001412782276944955</v>
-      </c>
-      <c r="AB8">
-        <v>5.651129107779819E-05</v>
+        <v>0.001412416365969315</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>5.651129107779819E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1191,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z9">
-        <v>0.2506673463660821</v>
+        <v>0.2353534575927554</v>
       </c>
       <c r="AB9">
-        <v>0.01002669385464328</v>
+        <v>961.1744005456558</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.01002669385464328</v>
+        <v>961.1744005456558</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1278,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z10">
-        <v>0.3039278859639148</v>
+        <v>0.2937119032397754</v>
       </c>
       <c r="AB10">
-        <v>0.01215711543855659</v>
+        <v>1972.579367266631</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.01215711543855659</v>
+        <v>1972.579367266631</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1365,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z11">
-        <v>0.1285954981333669</v>
+        <v>0.1223396063125632</v>
       </c>
       <c r="AB11">
-        <v>0.005143819925334676</v>
+        <v>550.3831616796813</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.005143819925334676</v>
+        <v>550.3831616796813</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1452,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z12">
-        <v>0.3006658876077368</v>
+        <v>0.2762386004742184</v>
       </c>
       <c r="AB12">
-        <v>0.01202663550430947</v>
+        <v>1092.097169363513</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.01202663550430947</v>
+        <v>1092.097169363513</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1539,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z13">
-        <v>0.2980330284069961</v>
+        <v>0.2791288544710472</v>
       </c>
       <c r="AB13">
-        <v>0.01192132113627985</v>
+        <v>1507.494482367478</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.01192132113627985</v>
+        <v>1507.494482367478</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1626,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z14">
-        <v>0.2624934532140343</v>
+        <v>0.2429251293160247</v>
       </c>
       <c r="AB14">
-        <v>0.01049973812856137</v>
+        <v>751.5558091533005</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.01049973812856137</v>
+        <v>751.5558091533005</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1713,18 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>0</v>
+          <t>umolO2/min/m2</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
